--- a/BONDSPV.xlsx
+++ b/BONDSPV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10913"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11011"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielepiergallini/R/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA76B662-4E8B-0B43-98E5-61AD588BADAE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115B40A4-F75C-D04C-9849-FC9011129026}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10480" yWindow="1880" windowWidth="15500" windowHeight="15780" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1320" yWindow="-21480" windowWidth="24360" windowHeight="17180" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BTP" sheetId="1" r:id="rId1"/>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:I40"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection sqref="A1:I40"/>
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2195,8 +2195,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I13"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -2575,8 +2575,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:I11"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
